--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_8_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_8_square_0.5_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.64000000000041</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.068366207057636e-06</v>
+        <v>0.02449221832896331</v>
       </c>
       <c r="I2" t="n">
-        <v>1.068366207057636e-06</v>
+        <v>0.02449221832896331</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>63.15884217272019</v>
+        <v>35.70269648742626</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[38.90519012370707, 87.41249422173331]</t>
+          <t>[2.499768982014473, 68.90562399283804]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.053145036042594e-06</v>
+        <v>0.03566902510678172</v>
       </c>
       <c r="O2" t="n">
-        <v>4.053145036042594e-06</v>
+        <v>0.03566902510678172</v>
       </c>
       <c r="P2" t="n">
-        <v>1.66671081721981</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2012896833546556, 2.132131951084965]</t>
+          <t>[-0.11950002085726741, 2.345974093671656]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.934422426217111e-09</v>
+        <v>0.07559135083873225</v>
       </c>
       <c r="S2" t="n">
-        <v>4.934422426217111e-09</v>
+        <v>0.07559135083873225</v>
       </c>
       <c r="T2" t="n">
-        <v>67.44946108147708</v>
+        <v>69.44369302820272</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[52.642299136459954, 82.25662302649421]</t>
+          <t>[51.54332208470318, 87.34406397170225]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.193801110361164e-12</v>
+        <v>6.446092548628712e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>7.193801110361164e-12</v>
+        <v>6.446092548628712e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>18.10386386386417</v>
+        <v>19.82180180180207</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.27867867867895</v>
+        <v>15.09543543543564</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.92904904904938</v>
+        <v>24.54816816816849</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.64000000000041</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.671033848240413e-06</v>
+        <v>0.03986696404325374</v>
       </c>
       <c r="I3" t="n">
-        <v>3.671033848240413e-06</v>
+        <v>0.03986696404325374</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>60.09900713716236</v>
+        <v>26.28915878074509</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[33.905289418486234, 86.29272485583849]</t>
+          <t>[-1.4402092107369597, 54.01852677222714]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.209770096268549e-05</v>
+        <v>0.06258609044086905</v>
       </c>
       <c r="O3" t="n">
-        <v>3.209770096268549e-05</v>
+        <v>0.06258609044086905</v>
       </c>
       <c r="P3" t="n">
-        <v>1.276763380738194</v>
+        <v>1.088079137279347</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.7861843477451922, 1.7673424137311953]</t>
+          <t>[-0.45913165908319353, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.09540853918422e-06</v>
+        <v>0.1635373886001132</v>
       </c>
       <c r="S3" t="n">
-        <v>4.09540853918422e-06</v>
+        <v>0.1635373886001132</v>
       </c>
       <c r="T3" t="n">
-        <v>66.60317824352622</v>
+        <v>49.28142965199198</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[51.690351313748394, 81.51600517330404]</t>
+          <t>[35.06780757907862, 63.49505172490535]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.286526440935631e-11</v>
+        <v>1.078808553600652e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.286526440935631e-11</v>
+        <v>1.078808553600652e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>19.6330730730734</v>
+        <v>19.91825825825853</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.70922922922952</v>
+        <v>13.98618618618638</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.55691691691728</v>
+        <v>25.85033033033068</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.64000000000041</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.748043765800958e-05</v>
+        <v>1.51609515663953e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>4.748043765800958e-05</v>
+        <v>1.51609515663953e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>55.13361815464228</v>
+        <v>60.52603728802253</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[26.56430054865045, 83.7029357606341]</t>
+          <t>[33.61713634233118, 87.43493823371388]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0003310638406295308</v>
+        <v>4.314437544272742e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0003310638406295308</v>
+        <v>4.314437544272742e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.30192127986604</v>
+        <v>1.062921238151501</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.7107106503616549, 1.8931319093704246]</t>
+          <t>[0.6100790538502707, 1.515763422452732]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.866956974909243e-05</v>
+        <v>2.265579905924575e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>5.866956974909243e-05</v>
+        <v>2.265579905924575e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>58.65592810204864</v>
+        <v>63.49941184595193</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.82654793961011, 74.48530826448717]</t>
+          <t>[49.248045100746936, 77.75077859115692]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.105671415009169e-09</v>
+        <v>1.378119840467207e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.105671415009169e-09</v>
+        <v>1.378119840467207e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>19.53441441441474</v>
+        <v>20.01471471471499</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.21593593593623</v>
+        <v>18.27849849849875</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.85289289289326</v>
+        <v>21.75093093093123</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.64000000000041</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006711854999461808</v>
+        <v>5.781573336405277e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006711854999461808</v>
+        <v>5.781573336405277e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>37.00856169561071</v>
+        <v>55.108209121087</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[8.921315989521972, 65.09580740169945]</t>
+          <t>[24.29301113105305, 85.92340711112095]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01095979600059338</v>
+        <v>0.0007849498755945206</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01095979600059338</v>
+        <v>0.0007849498755945206</v>
       </c>
       <c r="P5" t="n">
-        <v>1.264184431174271</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.3333421634439615, 2.19502669890458]</t>
+          <t>[0.5094474573388847, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.008883625848077781</v>
+        <v>0.0003980332039408285</v>
       </c>
       <c r="S5" t="n">
-        <v>0.008883625848077781</v>
+        <v>0.0003980332039408285</v>
       </c>
       <c r="T5" t="n">
-        <v>57.1173239139499</v>
+        <v>65.67372477419154</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[41.251078015006996, 72.9835698128928]</t>
+          <t>[49.78502086875025, 81.56242867963283]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.336343728539305e-09</v>
+        <v>1.165463281438406e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>4.336343728539305e-09</v>
+        <v>1.165463281438406e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>19.68240240240273</v>
+        <v>19.96648648648676</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.0320320320323</v>
+        <v>17.79621621621646</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.33277277277316</v>
+        <v>22.13675675675706</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.97000000000062</v>
+        <v>25.64000000000057</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05728019533729922</v>
+        <v>0.006372194202847847</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05728019533729922</v>
+        <v>0.006372194202847847</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>22.90271725298636</v>
+        <v>40.12383009085594</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.3753793766073628, 48.180813882580075]</t>
+          <t>[7.945656040678969, 72.30200414103291]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.07466802396970018</v>
+        <v>0.01568186423392004</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07466802396970018</v>
+        <v>0.01568186423392004</v>
       </c>
       <c r="P6" t="n">
-        <v>0.81134224687304</v>
+        <v>1.000026490331886</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.7799213632951174, 3.4026058570411974]</t>
+          <t>[0.20755266780473125, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.5314726785447506</v>
+        <v>0.01454917398794375</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5314726785447506</v>
+        <v>0.01454917398794375</v>
       </c>
       <c r="T6" t="n">
-        <v>46.30657346378425</v>
+        <v>56.51221903102515</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[33.34650245886927, 59.266644468699226]</t>
+          <t>[39.55777934247877, 73.46665871957154]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.214973564093839e-09</v>
+        <v>2.714983859952724e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>5.214973564093839e-09</v>
+        <v>2.714983859952724e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>22.61651651651706</v>
+        <v>21.55915915915964</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.90616616616645</v>
+        <v>18.32528528528569</v>
       </c>
       <c r="Z6" t="n">
-        <v>33.32686686686766</v>
+        <v>24.79303303303358</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.97000000000062</v>
+        <v>25.64000000000057</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004037432746071268</v>
+        <v>3.166039885837968e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004037432746071268</v>
+        <v>3.166039885837968e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>39.8676247027467</v>
+        <v>68.98050167449298</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[11.128351487054474, 68.60689791843892]</t>
+          <t>[38.8740825111926, 99.08692083779337]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.007622002988770582</v>
+        <v>3.277639638055163e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007622002988770582</v>
+        <v>3.277639638055163e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3710790121357315</v>
+        <v>0.04402632347373014</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.42139481039142357, 1.1635528346628865]</t>
+          <t>[-0.48428955821104047, 0.5723422051585008]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3506597541321459</v>
+        <v>0.8674596780438755</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3506597541321459</v>
+        <v>0.8674596780438755</v>
       </c>
       <c r="T7" t="n">
-        <v>70.58992289743549</v>
+        <v>79.51357009938269</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[55.174943274156504, 86.00490252071447]</t>
+          <t>[60.970038993552166, 98.05710120521321]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.149747378003667e-12</v>
+        <v>4.163291933423352e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>6.149747378003667e-12</v>
+        <v>4.163291933423352e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>24.43623623623682</v>
+        <v>25.46034034034091</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.16074074074125</v>
+        <v>23.30442442442494</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.71173173173239</v>
+        <v>27.61625625625688</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.97000000000062</v>
+        <v>25.64000000000057</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.900373455689721e-05</v>
+        <v>0.001197459377738741</v>
       </c>
       <c r="I8" t="n">
-        <v>3.900373455689721e-05</v>
+        <v>0.001197459377738741</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>57.98001596066395</v>
+        <v>42.6496446289797</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[28.663863027692713, 87.29616889363518]</t>
+          <t>[17.885594287673356, 67.41369497028604]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0002456306683082943</v>
+        <v>0.001163413547255354</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0002456306683082943</v>
+        <v>0.001163413547255354</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.3018947895341544</v>
+        <v>-0.0503157982556921</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.8679475199106932, 0.2641579408423844]</t>
+          <t>[-0.792473822527155, 0.6918422260157708]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.2884645552340575</v>
+        <v>0.8919960697227634</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2884645552340575</v>
+        <v>0.8919960697227634</v>
       </c>
       <c r="T8" t="n">
-        <v>61.33380032124691</v>
+        <v>54.13073879856472</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.23663925224892, 77.4309613902449]</t>
+          <t>[39.20658092187399, 69.05489667525545]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.031463359169038e-09</v>
+        <v>3.600878040188604e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>1.031463359169038e-09</v>
+        <v>3.600878040188604e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>1.247807807807838</v>
+        <v>0.205325325325326</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.091831831831855</v>
+        <v>-2.823223223223291</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.587447447447532</v>
+        <v>3.233873873873943</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.97000000000062</v>
+        <v>25.64000000000057</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001664222735884291</v>
+        <v>0.00034899771868524</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001664222735884291</v>
+        <v>0.00034899771868524</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>51.93925389554931</v>
+        <v>45.42906129931608</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[21.012719158841747, 82.86578863225688]</t>
+          <t>[15.989439552448133, 74.86868304618403]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.001495544060756471</v>
+        <v>0.003260163494942292</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001495544060756471</v>
+        <v>0.003260163494942292</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.9811580659860013</v>
+        <v>-0.9685791164220783</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.559789745926464, -0.4025263860455386]</t>
+          <t>[-1.58494764505431, -0.3522105877898465]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.001360307064428801</v>
+        <v>0.002780585060515151</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001360307064428801</v>
+        <v>0.002780585060515151</v>
       </c>
       <c r="T9" t="n">
-        <v>63.79838569416324</v>
+        <v>65.16988928371256</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[47.11693291006992, 80.47983847825657]</t>
+          <t>[49.9362609797662, 80.40351758765892]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>9.359988339951997e-10</v>
+        <v>4.446110146716364e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>9.359988339951997e-10</v>
+        <v>4.446110146716364e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>4.055375375375473</v>
+        <v>3.952512512512602</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.663743743743782</v>
+        <v>1.43727727727731</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.447007007007163</v>
+        <v>6.467747747747893</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.97000000000062</v>
+        <v>25.64000000000057</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>7.88118199079868e-06</v>
+        <v>0.0001699394381059482</v>
       </c>
       <c r="I10" t="n">
-        <v>7.88118199079868e-06</v>
+        <v>0.0001699394381059482</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>42.43544552166851</v>
+        <v>48.4936482495772</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[21.263959310162598, 63.60693173317443]</t>
+          <t>[19.07547689672042, 77.91181960243398]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0002078583066087436</v>
+        <v>0.001790694547753935</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0002078583066087436</v>
+        <v>0.001790694547753935</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.081789662497386</v>
+        <v>-0.6792632764518469</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.6101055441821561, -0.5534737808126167]</t>
+          <t>[-1.2578949563923096, -0.1006315965113842]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.00015818738340867</v>
+        <v>0.02243492632858546</v>
       </c>
       <c r="S10" t="n">
-        <v>0.00015818738340867</v>
+        <v>0.02243492632858546</v>
       </c>
       <c r="T10" t="n">
-        <v>50.54373879974288</v>
+        <v>57.25046358743437</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[39.21193876633144, 61.87553883315432]</t>
+          <t>[42.04267153308679, 72.45825564178196]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.336553090425241e-11</v>
+        <v>1.407627348015694e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>1.336553090425241e-11</v>
+        <v>1.407627348015694e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>4.471311311311421</v>
+        <v>2.771891891891954</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.287647647647706</v>
+        <v>0.4106506506506591</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.654974974975136</v>
+        <v>5.133133133133249</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_8_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_8_square_0.5_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.09000000000033</v>
+        <v>25.32000000000052</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02449221832896331</v>
+        <v>0.005509024350609071</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02449221832896331</v>
+        <v>0.005509024350609071</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>35.70269648742626</v>
+        <v>37.05996288451713</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[2.499768982014473, 68.90562399283804]</t>
+          <t>[11.362114189259238, 62.757811579775016]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.03566902510678172</v>
+        <v>0.00568195164887797</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03566902510678172</v>
+        <v>0.00568195164887797</v>
       </c>
       <c r="P2" t="n">
-        <v>1.113237036407194</v>
+        <v>1.616395018964118</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-0.11950002085726741, 2.345974093671656]</t>
+          <t>[0.6352369529781168, 2.5975530849501194]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.07559135083873225</v>
+        <v>0.001800962159906438</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07559135083873225</v>
+        <v>0.001800962159906438</v>
       </c>
       <c r="T2" t="n">
-        <v>69.44369302820272</v>
+        <v>59.81865028809031</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.54332208470318, 87.34406397170225]</t>
+          <t>[43.957308987737704, 75.67999158844292]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.446092548628712e-10</v>
+        <v>1.343898325956161e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>6.446092548628712e-10</v>
+        <v>1.343898325956161e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>19.82180180180207</v>
+        <v>18.80624624624663</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.09543543543564</v>
+        <v>14.85237237237268</v>
       </c>
       <c r="Z2" t="n">
-        <v>24.54816816816849</v>
+        <v>22.76012012012059</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.09000000000033</v>
+        <v>25.32000000000052</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03986696404325374</v>
+        <v>1.67108158488638e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03986696404325374</v>
+        <v>1.67108158488638e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>26.28915878074509</v>
+        <v>58.85297031436419</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.4402092107369597, 54.01852677222714]</t>
+          <t>[35.51963951332807, 82.18630111540031]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.06258609044086905</v>
+        <v>7.041958528519743e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06258609044086905</v>
+        <v>7.041958528519743e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.088079137279347</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-0.45913165908319353, 2.6352899336418885]</t>
+          <t>[1.1887107337907326, 2.1195530015210418]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1635373886001132</v>
+        <v>5.939680081112897e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1635373886001132</v>
+        <v>5.939680081112897e-09</v>
       </c>
       <c r="T3" t="n">
-        <v>49.28142965199198</v>
+        <v>73.62329578384427</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[35.06780757907862, 63.49505172490535]</t>
+          <t>[59.30673626401765, 87.9398553036709]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.078808553600652e-08</v>
+        <v>1.709743457922741e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.078808553600652e-08</v>
+        <v>1.709743457922741e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>19.91825825825853</v>
+        <v>18.65417417417456</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.98618618618638</v>
+        <v>16.77861861861896</v>
       </c>
       <c r="Z3" t="n">
-        <v>25.85033033033068</v>
+        <v>20.52972972973015</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.09000000000033</v>
+        <v>25.32000000000052</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.51609515663953e-06</v>
+        <v>0.02548665265736128</v>
       </c>
       <c r="I4" t="n">
-        <v>1.51609515663953e-06</v>
+        <v>0.02548665265736128</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>60.52603728802253</v>
+        <v>31.90802067046526</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[33.61713634233118, 87.43493823371388]</t>
+          <t>[5.610356874648446, 58.20568446628208]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.314437544272742e-05</v>
+        <v>0.01851844298078009</v>
       </c>
       <c r="O4" t="n">
-        <v>4.314437544272742e-05</v>
+        <v>0.01851844298078009</v>
       </c>
       <c r="P4" t="n">
-        <v>1.062921238151501</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.6100790538502707, 1.515763422452732]</t>
+          <t>[0.3962369112635775, 2.7862373284089648]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.265579905924575e-05</v>
+        <v>0.01019859249801747</v>
       </c>
       <c r="S4" t="n">
-        <v>2.265579905924575e-05</v>
+        <v>0.01019859249801747</v>
       </c>
       <c r="T4" t="n">
-        <v>63.49941184595193</v>
+        <v>54.17548840930435</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.248045100746936, 77.75077859115692]</t>
+          <t>[37.63771482704788, 70.71326199156081]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.378119840467207e-11</v>
+        <v>4.031095790502093e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.378119840467207e-11</v>
+        <v>4.031095790502093e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>20.01471471471499</v>
+        <v>18.90762762762802</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.27849849849875</v>
+        <v>14.0920120120123</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.75093093093123</v>
+        <v>23.72324324324373</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.09000000000033</v>
+        <v>25.32000000000052</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.781573336405277e-05</v>
+        <v>0.000134834991314503</v>
       </c>
       <c r="I5" t="n">
-        <v>5.781573336405277e-05</v>
+        <v>0.000134834991314503</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>55.108209121087</v>
+        <v>51.19422923608401</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[24.29301113105305, 85.92340711112095]</t>
+          <t>[21.087363016015573, 81.30109545615245]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0007849498755945206</v>
+        <v>0.001322829998310793</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0007849498755945206</v>
+        <v>0.001322829998310793</v>
       </c>
       <c r="P5" t="n">
-        <v>1.075500187715424</v>
+        <v>0.6855527512338089</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.5094474573388847, 1.6415529180919641]</t>
+          <t>[0.1320789704211931, 1.2390265320464247]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0003980332039408285</v>
+        <v>0.01634275282623765</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0003980332039408285</v>
+        <v>0.01634275282623765</v>
       </c>
       <c r="T5" t="n">
-        <v>65.67372477419154</v>
+        <v>56.91316574880136</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.78502086875025, 81.56242867963283]</t>
+          <t>[41.5736036165988, 72.25272788100392]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.165463281438406e-10</v>
+        <v>2.039011626209231e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.165463281438406e-10</v>
+        <v>2.039011626209231e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>19.96648648648676</v>
+        <v>22.55735735735782</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.79621621621646</v>
+        <v>20.32696696696738</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.13675675675706</v>
+        <v>24.78774774774826</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.64000000000057</v>
+        <v>25.54000000000055</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006372194202847847</v>
+        <v>0.001274820823673584</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006372194202847847</v>
+        <v>0.001274820823673584</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>40.12383009085594</v>
+        <v>53.89860483515933</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[7.945656040678969, 72.30200414103291]</t>
+          <t>[18.870858665103498, 88.92635100521517]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.01568186423392004</v>
+        <v>0.003341120306105561</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01568186423392004</v>
+        <v>0.003341120306105561</v>
       </c>
       <c r="P6" t="n">
-        <v>1.000026490331886</v>
+        <v>0.3962369112635775</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.20755266780473125, 1.7925003128590413]</t>
+          <t>[-0.3207632138800385, 1.1132370364071935]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.01454917398794375</v>
+        <v>0.2715944182198555</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01454917398794375</v>
+        <v>0.2715944182198555</v>
       </c>
       <c r="T6" t="n">
-        <v>56.51221903102515</v>
+        <v>65.00497421822078</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[39.55777934247877, 73.46665871957154]</t>
+          <t>[46.12815234062677, 83.88179609581479]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.714983859952724e-08</v>
+        <v>1.268617477734324e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.714983859952724e-08</v>
+        <v>1.268617477734324e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>21.55915915915964</v>
+        <v>23.92936936936989</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.32528528528569</v>
+        <v>21.01489489489535</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.79303303303358</v>
+        <v>26.84384384384442</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.64000000000057</v>
+        <v>25.54000000000055</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166039885837968e-05</v>
+        <v>2.541422123969461e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166039885837968e-05</v>
+        <v>2.541422123969461e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>68.98050167449298</v>
+        <v>55.76791198048584</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[38.8740825111926, 99.08692083779337]</t>
+          <t>[32.4331925232661, 79.10263143770558]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.277639638055163e-05</v>
+        <v>1.706995991024307e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>3.277639638055163e-05</v>
+        <v>1.706995991024307e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04402632347373014</v>
+        <v>0.2704474156243464</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.48428955821104047, 0.5723422051585008]</t>
+          <t>[-0.19497371824080822, 0.735868549489501]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8674596780438755</v>
+        <v>0.2480181204190983</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8674596780438755</v>
+        <v>0.2480181204190983</v>
       </c>
       <c r="T7" t="n">
-        <v>79.51357009938269</v>
+        <v>58.87077983197018</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[60.970038993552166, 98.05710120521321]</t>
+          <t>[45.84525318563078, 71.89630647830958]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.163291933423352e-11</v>
+        <v>9.069411888162904e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>4.163291933423352e-11</v>
+        <v>9.069411888162904e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>25.46034034034091</v>
+        <v>24.44068068068121</v>
       </c>
       <c r="Y7" t="n">
-        <v>23.30442442442494</v>
+        <v>22.54882882882932</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.61625625625688</v>
+        <v>26.3325325325331</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.64000000000057</v>
+        <v>25.54000000000055</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001197459377738741</v>
+        <v>0.0006183682466928131</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001197459377738741</v>
+        <v>0.0006183682466928131</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>42.6496446289797</v>
+        <v>46.65375288297096</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[17.885594287673356, 67.41369497028604]</t>
+          <t>[20.46284838883085, 72.84465737711108]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.001163413547255354</v>
+        <v>0.0008188454171016435</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001163413547255354</v>
+        <v>0.0008188454171016435</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0503157982556921</v>
+        <v>-0.08805264694746207</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.792473822527155, 0.6918422260157708]</t>
+          <t>[-0.767315923399309, 0.5912106295043849]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.8919960697227634</v>
+        <v>0.7952162570012316</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8919960697227634</v>
+        <v>0.7952162570012316</v>
       </c>
       <c r="T8" t="n">
-        <v>54.13073879856472</v>
+        <v>70.49437101946333</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[39.20658092187399, 69.05489667525545]</t>
+          <t>[55.00559925123247, 85.98314278769419]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.600878040188604e-09</v>
+        <v>7.377431998634165e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>3.600878040188604e-09</v>
+        <v>7.377431998634165e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>0.205325325325326</v>
+        <v>0.3579179179179306</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.823223223223291</v>
+        <v>-2.40316316316321</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.233873873873943</v>
+        <v>3.118998998999071</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.64000000000057</v>
+        <v>25.54000000000055</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00034899771868524</v>
+        <v>1.093637413962512e-07</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00034899771868524</v>
+        <v>1.093637413962512e-07</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>45.42906129931608</v>
+        <v>62.27278621253327</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[15.989439552448133, 74.86868304618403]</t>
+          <t>[41.314400479582915, 83.23117194548362]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.003260163494942292</v>
+        <v>3.293122505798607e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003260163494942292</v>
+        <v>3.293122505798607e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.9685791164220783</v>
+        <v>-0.07547369738353815</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.58494764505431, -0.3522105877898465]</t>
+          <t>[-0.4528421843012316, 0.3018947895341553]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.002780585060515151</v>
+        <v>0.6889875392040872</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002780585060515151</v>
+        <v>0.6889875392040872</v>
       </c>
       <c r="T9" t="n">
-        <v>65.16988928371256</v>
+        <v>51.9341325135306</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.9362609797662, 80.40351758765892]</t>
+          <t>[39.287232424442024, 64.58103260261917]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.446110146716364e-11</v>
+        <v>1.395339399579143e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>4.446110146716364e-11</v>
+        <v>1.395339399579143e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>3.952512512512602</v>
+        <v>0.3067867867867911</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.43727727727731</v>
+        <v>-1.227147147147178</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.467747747747893</v>
+        <v>1.840720720720761</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.64000000000057</v>
+        <v>25.54000000000055</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001699394381059482</v>
+        <v>0.000187684854412451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001699394381059482</v>
+        <v>0.000187684854412451</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>48.4936482495772</v>
+        <v>51.59293734362595</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[19.07547689672042, 77.91181960243398]</t>
+          <t>[24.694053269681802, 78.4918214175701]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001790694547753935</v>
+        <v>0.0003561197415995476</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001790694547753935</v>
+        <v>0.0003561197415995476</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.6792632764518469</v>
+        <v>-1.496894998106848</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.2578949563923096, -0.1006315965113842]</t>
+          <t>[-2.151000375430849, -0.8427896207828471]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.02243492632858546</v>
+        <v>3.337646843637465e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02243492632858546</v>
+        <v>3.337646843637465e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>57.25046358743437</v>
+        <v>50.59873173314045</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.04267153308679, 72.45825564178196]</t>
+          <t>[34.00389097310781, 67.1935724931731]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.407627348015694e-09</v>
+        <v>1.926859662937375e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.407627348015694e-09</v>
+        <v>1.926859662937375e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>2.771891891891954</v>
+        <v>6.084604604604735</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4106506506506591</v>
+        <v>3.425785785785859</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.133133133133249</v>
+        <v>8.743423423423611</v>
       </c>
     </row>
   </sheetData>
